--- a/public/uploads/chile-accural.xlsx
+++ b/public/uploads/chile-accural.xlsx
@@ -19,10 +19,10 @@
     <t>WEIGHT</t>
   </si>
   <si>
-    <t>SCL</t>
+    <t>SRM</t>
   </si>
   <si>
-    <t>Other</t>
+    <t>SRP</t>
   </si>
 </sst>
 </file>
@@ -396,7 +396,7 @@
   <dimension ref="A2:D75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
